--- a/excel/basic.xlsx
+++ b/excel/basic.xlsx
@@ -9,19 +9,135 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="240" windowWidth="24615" windowHeight="11520" activeTab="1"/>
+    <workbookView xWindow="6735" yWindow="240" windowWidth="24615" windowHeight="11520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
     <sheet name="ship" sheetId="3" r:id="rId2"/>
-    <sheet name="!readme" sheetId="2" r:id="rId3"/>
+    <sheet name="item" sheetId="4" r:id="rId3"/>
+    <sheet name="weapon" sheetId="5" r:id="rId4"/>
+    <sheet name="module" sheetId="6" r:id="rId5"/>
+    <sheet name="!readme" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>微软用户</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>微软用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1:不可使用物品
+100:武器
+101:模块</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>微软用户</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>微软用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1:炮类
+2：激光类
+3：导弹类</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>微软用户</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>微软用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1:舰船提升类
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="122">
   <si>
     <t>1,2</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -163,22 +279,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>wp_pao#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>wp_ms#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>激光伤害加成</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>wp_ls#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>shdBtRecPerAdd#number</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -312,6 +416,213 @@
   </si>
   <si>
     <t>海盗船突击舰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>name#string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc#string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆叠数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>type#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>子id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>subId#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器速度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>装填速度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础命中率</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗电量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>spd#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>start#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>aim#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>普晶体</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>这篇宇宙中最常见的合成晶体，可以用来制造和修补</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用弹射炮</t>
+  </si>
+  <si>
+    <t>民用弹射炮</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一种常见的民用炮</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻型海盗自动机炮</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般无人海盗船上的常见炮类</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用护盾扩充系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾增加</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构增加</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮类伤害增加</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮类伤害加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战时护盾回冲增加</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战时护盾回冲加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般护盾回冲增加</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般护盾回冲加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shdAdd#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shdPer#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>strcAdd#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>strcPer#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>paoAtkAdd#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp_paoPer#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp_msPer#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp_lsPer#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>paoAtkPer#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shdBtRecAdd#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shdBtRecPer#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shdRecAdd#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shdRecPer#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种常见的护盾扩充系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用结构强化系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种常见的结构扩充系统</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -319,7 +630,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,6 +796,21 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1274,15 +1600,16 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.75" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.5" style="2" bestFit="1" customWidth="1"/>
@@ -1303,13 +1630,13 @@
         <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>34</v>
@@ -1323,22 +1650,22 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1383,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1416,46 +1743,46 @@
         <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -1466,46 +1793,46 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
@@ -1513,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2">
         <v>50</v>
@@ -1563,7 +1890,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2">
         <v>20</v>
@@ -1616,6 +1943,454 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>10001</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="2">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>20000</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="2">
+        <v>101</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>20001</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="2">
+        <v>101</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2500</v>
+      </c>
+      <c r="H3" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="17.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>

--- a/excel/basic.xlsx
+++ b/excel/basic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="240" windowWidth="24615" windowHeight="11520" activeTab="2"/>
+    <workbookView xWindow="6735" yWindow="240" windowWidth="24615" windowHeight="11520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="129">
   <si>
     <t>1,2</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -327,302 +327,329 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>最大武器位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始开启武器位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxWpNum#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wpOpen#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大模块位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMdNum#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始开启模块位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdOpen#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>电量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大等级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxLv#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>电量升级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>costLv#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾升级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构升级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shdLv#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>strcLv#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>货柜仓容量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>store#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用侦查舰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>海盗船突击舰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>name#string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc#string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆叠数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>type#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>子id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>subId#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器速度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>装填速度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础命中率</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗电量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>spd#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>start#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>aim#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>普晶体</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>这篇宇宙中最常见的合成晶体，可以用来制造和修补</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用弹射炮</t>
+  </si>
+  <si>
+    <t>民用弹射炮</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一种常见的民用炮</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般无人海盗船上的常见炮类</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用护盾扩充系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾增加</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构增加</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮类伤害增加</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮类伤害加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战时护盾回冲增加</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战时护盾回冲加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般护盾回冲增加</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般护盾回冲加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shdAdd#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shdPer#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>strcAdd#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>strcPer#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>paoAtkAdd#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp_paoPer#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp_msPer#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp_lsPer#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>paoAtkPer#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shdBtRecAdd#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shdBtRecPer#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shdRecAdd#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shdRecPer#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种常见的护盾扩充系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用结构强化系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种常见的结构扩充系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用护盾扩充</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用结构强化</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用炮弹增幅</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用护盾战斗回冲</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>shdBtRec#number</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>最大武器位</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始开启武器位</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxWpNum#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>wpOpen#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大模块位</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxMdNum#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始开启模块位</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>mdOpen#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>电量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大等级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxLv#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>电量升级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>costLv#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾升级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构升级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shdLv#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>strcLv#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>货柜仓容量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>store#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民用侦查舰</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>海盗船突击舰</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>name#string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc#string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>堆叠数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>type#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>stack#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>子id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>subId#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器速度</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>装填速度</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础命中率</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>耗电量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>spd#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>start#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>aim#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>普晶体</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>这篇宇宙中最常见的合成晶体，可以用来制造和修补</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民用弹射炮</t>
-  </si>
-  <si>
-    <t>民用弹射炮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是一种常见的民用炮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻型海盗自动机炮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般无人海盗船上的常见炮类</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民用护盾扩充系统</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾增加</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾加成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构增加</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构加成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>炮类伤害增加</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>炮类伤害加成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>战时护盾回冲增加</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>战时护盾回冲加成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般护盾回冲增加</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般护盾回冲加成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shdAdd#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shdPer#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>strcAdd#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>strcPer#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>paoAtkAdd#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>wp_paoPer#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>wp_msPer#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>wp_lsPer#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>paoAtkPer#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shdBtRecAdd#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shdBtRecPer#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shdRecAdd#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shdRecPer#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一种常见的护盾扩充系统</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民用结构强化系统</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一种常见的结构扩充系统</t>
+    <t>轻型快速炮</t>
+  </si>
+  <si>
+    <t>轻型快速炮</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加炮类伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗时护盾回冲增加</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1650,13 +1677,13 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>36</v>
@@ -1710,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1749,22 +1776,22 @@
         <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>44</v>
@@ -1773,16 +1800,16 @@
         <v>46</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -1799,40 +1826,40 @@
         <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
@@ -1840,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2">
         <v>50</v>
@@ -1882,7 +1909,7 @@
         <v>10</v>
       </c>
       <c r="P3" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
@@ -1890,7 +1917,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2">
         <v>20</v>
@@ -1944,10 +1971,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1969,16 +1996,16 @@
         <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -1986,19 +2013,19 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -2006,10 +2033,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -2023,10 +2050,10 @@
         <v>10000</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="D4" s="2">
         <v>100</v>
@@ -2043,10 +2070,10 @@
         <v>10001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2">
         <v>100</v>
@@ -2063,10 +2090,10 @@
         <v>20000</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D6" s="2">
         <v>101</v>
@@ -2083,10 +2110,10 @@
         <v>20001</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D7" s="2">
         <v>101</v>
@@ -2095,13 +2122,54 @@
         <v>2</v>
       </c>
       <c r="F7" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>20002</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="2">
+        <v>101</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>20003</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="2">
+        <v>101</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2110,7 +2178,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2134,22 +2202,22 @@
         <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -2157,25 +2225,25 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -2183,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -2209,7 +2277,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2239,10 +2307,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2258,7 +2326,8 @@
     <col min="9" max="10" width="17.875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.75" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="17.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="15" max="15" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
@@ -2269,40 +2338,40 @@
         <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -2310,43 +2379,43 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="J2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -2354,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -2371,7 +2440,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2381,6 +2450,40 @@
       </c>
       <c r="G4" s="2">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/excel/basic.xlsx
+++ b/excel/basic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="240" windowWidth="24615" windowHeight="11520" activeTab="1"/>
+    <workbookView xWindow="6735" yWindow="240" windowWidth="24615" windowHeight="11520" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="weapon" sheetId="5" r:id="rId4"/>
     <sheet name="module" sheetId="6" r:id="rId5"/>
     <sheet name="!readme" sheetId="2" r:id="rId6"/>
+    <sheet name="!类型" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -128,7 +129,7 @@
           </rPr>
           <t xml:space="preserve">
 1:舰船提升类
-</t>
+2:触发类</t>
         </r>
       </text>
     </comment>
@@ -137,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="156">
   <si>
     <t>1,2</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -487,169 +488,275 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>这篇宇宙中最常见的合成晶体，可以用来制造和修补</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用弹射炮</t>
+  </si>
+  <si>
+    <t>民用弹射炮</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一种常见的民用炮</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般无人海盗船上的常见炮类</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用护盾扩充系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp_paoPer#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp_msPer#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp_lsPer#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种常见的护盾扩充系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用结构强化系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种常见的结构扩充系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用护盾扩充</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用结构强化</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用炮弹增幅</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用护盾战斗回冲</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shdBtRec#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻型快速炮</t>
+  </si>
+  <si>
+    <t>轻型快速炮</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加炮类伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗时护盾回冲增加</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发时机</t>
+  </si>
+  <si>
+    <t>触发时机</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发概率</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发数值来源</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发数值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发数值加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发数值上限</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻型充能器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tgTgt#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tgNum#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tgNumMax#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发效果类型</t>
+  </si>
+  <si>
+    <t>触发效果类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意武器发动时</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>某类武器发动时</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>某位置武器发动时</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对当前目标造成伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复护盾</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发目标参数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低某武器装填时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发数值来源</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前护盾</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前结构</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时，随机使一个武器的填充时间降低50%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮类武器攻击之后，35%概率发动，造成一次额外攻击，伤害值为当前护盾的15%，每次战斗最多发动3次</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发次数上限</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tgMax#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加本次挖矿数量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>船体加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>add#{}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{shdAdd:10}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{strcAdd:10}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{paoAtkAdd:15}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{shdBtRecAdd:15}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>普晶体</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>这篇宇宙中最常见的合成晶体，可以用来制造和修补</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民用弹射炮</t>
-  </si>
-  <si>
-    <t>民用弹射炮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是一种常见的民用炮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般无人海盗船上的常见炮类</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民用护盾扩充系统</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾增加</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾加成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构增加</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构加成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>炮类伤害增加</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>炮类伤害加成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>战时护盾回冲增加</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>战时护盾回冲加成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般护盾回冲增加</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般护盾回冲加成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shdAdd#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shdPer#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>strcAdd#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>strcPer#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>paoAtkAdd#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>wp_paoPer#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>wp_msPer#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>wp_lsPer#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>paoAtkPer#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shdBtRecAdd#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shdBtRecPer#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shdRecAdd#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shdRecPer#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一种常见的护盾扩充系统</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民用结构强化系统</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一种常见的结构扩充系统</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民用护盾扩充</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民用结构强化</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民用炮弹增幅</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民用护盾战斗回冲</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shdBtRec#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻型快速炮</t>
-  </si>
-  <si>
-    <t>轻型快速炮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加炮类伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗时护盾回冲增加</t>
+    <t>轻型火炮激发</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发时机参数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发目标类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机一个武器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tgSrc#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tgSrcP#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tgProb#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tgEff#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tgNumSrc#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tgNumPer#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻型火炮激发</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -841,7 +948,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1019,6 +1126,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1266,7 +1385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1278,6 +1397,21 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1627,7 +1761,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1677,13 +1811,13 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>36</v>
@@ -1737,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1847,7 +1981,7 @@
         <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>49</v>
@@ -1873,7 +2007,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2">
         <v>50</v>
@@ -1971,17 +2105,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.75" style="2" bestFit="1" customWidth="1"/>
@@ -2033,10 +2167,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -2050,10 +2184,10 @@
         <v>10000</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D4" s="2">
         <v>100</v>
@@ -2070,10 +2204,10 @@
         <v>10001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="D5" s="2">
         <v>100</v>
@@ -2090,10 +2224,10 @@
         <v>20000</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="D6" s="2">
         <v>101</v>
@@ -2110,10 +2244,10 @@
         <v>20001</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="D7" s="2">
         <v>101</v>
@@ -2130,10 +2264,10 @@
         <v>20002</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>127</v>
+        <v>101</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="D8" s="2">
         <v>101</v>
@@ -2150,10 +2284,10 @@
         <v>20003</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>128</v>
+        <v>102</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D9" s="2">
         <v>101</v>
@@ -2162,6 +2296,46 @@
         <v>4</v>
       </c>
       <c r="F9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>20004</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="2">
+        <v>101</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>20005</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="2">
+        <v>101</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2">
         <v>8</v>
       </c>
     </row>
@@ -2178,7 +2352,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2251,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -2277,7 +2451,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2307,30 +2481,34 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="17.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="17.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="7" max="8" width="14.125" style="2" customWidth="1"/>
+    <col min="9" max="11" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -2344,37 +2522,40 @@
         <v>82</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -2388,42 +2569,45 @@
         <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -2431,16 +2615,16 @@
       <c r="D3" s="2">
         <v>5</v>
       </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E3" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2448,16 +2632,16 @@
       <c r="D4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E4" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -2465,16 +2649,16 @@
       <c r="D5" s="2">
         <v>5</v>
       </c>
-      <c r="I5" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E5" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -2482,14 +2666,88 @@
       <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="K6" s="2">
-        <v>15</v>
+      <c r="E6" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>100</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>35</v>
+      </c>
+      <c r="O7" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>45</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2497,8 +2755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2618,4 +2876,139 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="4" customWidth="1"/>
+    <col min="8" max="8" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9" style="4"/>
+    <col min="11" max="11" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/basic.xlsx
+++ b/excel/basic.xlsx
@@ -17,8 +17,9 @@
     <sheet name="item" sheetId="4" r:id="rId3"/>
     <sheet name="weapon" sheetId="5" r:id="rId4"/>
     <sheet name="module" sheetId="6" r:id="rId5"/>
-    <sheet name="!readme" sheetId="2" r:id="rId6"/>
-    <sheet name="!类型" sheetId="7" r:id="rId7"/>
+    <sheet name="skill" sheetId="8" r:id="rId6"/>
+    <sheet name="!readme" sheetId="2" r:id="rId7"/>
+    <sheet name="!类型" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -138,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="172">
   <si>
     <t>1,2</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -704,10 +705,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>{paoAtkAdd:15}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>{shdBtRecAdd:15}</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -757,6 +754,74 @@
   </si>
   <si>
     <t>轻型火炮激发</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>type#string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp#{}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂件加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>md#{}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>type#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复速度增加</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗受伤概率降低</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>btHrtProb#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpRecv#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>采矿量加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>minePer#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextLv#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{atkAdd_1:15}</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1385,7 +1450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1404,14 +1469,17 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2167,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>87</v>
@@ -2304,7 +2372,7 @@
         <v>20004</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>134</v>
@@ -2352,7 +2420,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E1" sqref="E1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2487,7 +2555,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2528,7 +2596,7 @@
         <v>109</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>135</v>
@@ -2572,31 +2640,31 @@
         <v>139</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>116</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>117</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>118</v>
@@ -2650,7 +2718,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -2667,7 +2735,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -2675,7 +2743,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -2752,6 +2820,99 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -2878,7 +3039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L6"/>
   <sheetViews>
@@ -2904,34 +3065,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="H2" s="6" t="s">
+      <c r="F2" s="8"/>
+      <c r="H2" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="K2" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="L2" s="6"/>
+      <c r="I2" s="8"/>
+      <c r="K2" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>121</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>125</v>
       </c>
       <c r="H3" s="4">
@@ -2943,8 +3104,8 @@
       <c r="K3" s="4">
         <v>1</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>148</v>
+      <c r="L3" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.15">
@@ -2963,7 +3124,7 @@
       <c r="H4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2971,13 +3132,13 @@
       <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>123</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>128</v>
       </c>
       <c r="H5" s="4">

--- a/excel/basic.xlsx
+++ b/excel/basic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="240" windowWidth="24615" windowHeight="11520" activeTab="4"/>
+    <workbookView xWindow="6735" yWindow="240" windowWidth="24615" windowHeight="11520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="178">
   <si>
     <t>1,2</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -213,615 +213,639 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>string-array#[]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"hello","world"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>object#{}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{mode:"percent",value:45}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{a:true,b:[1,2,3,4.4]}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>date#date</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"描述"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>智械</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮类伤害加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹伤害加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾战斗回冲加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾一般回冲加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光伤害加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shdBtRecPerAdd#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shdRecPerAdd#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>strcPerAdd#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>strc#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shd#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般护盾回冲</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shdRec#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗护盾回冲</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大武器位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始开启武器位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxWpNum#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wpOpen#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大模块位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMdNum#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始开启模块位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdOpen#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>电量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大等级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxLv#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>电量升级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>costLv#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾升级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构升级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shdLv#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>strcLv#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>货柜仓容量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>store#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用侦查舰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>海盗船突击舰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>name#string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc#string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆叠数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>type#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>子id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>subId#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器速度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>装填速度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础命中率</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗电量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>spd#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>start#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>aim#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>这篇宇宙中最常见的合成晶体，可以用来制造和修补</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用弹射炮</t>
+  </si>
+  <si>
+    <t>民用弹射炮</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一种常见的民用炮</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般无人海盗船上的常见炮类</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用护盾扩充系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp_paoPer#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp_msPer#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp_lsPer#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种常见的护盾扩充系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用结构强化系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种常见的结构扩充系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用护盾扩充</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用结构强化</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用炮弹增幅</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用护盾战斗回冲</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shdBtRec#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻型快速炮</t>
+  </si>
+  <si>
+    <t>轻型快速炮</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加炮类伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗时护盾回冲增加</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发时机</t>
+  </si>
+  <si>
+    <t>触发时机</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发概率</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发数值来源</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发数值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发数值加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发数值上限</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻型充能器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tgTgt#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tgNum#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tgNumMax#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发效果类型</t>
+  </si>
+  <si>
+    <t>触发效果类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意武器发动时</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>某类武器发动时</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>某位置武器发动时</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对当前目标造成伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复护盾</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发目标参数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低某武器装填时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发数值来源</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前护盾</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前结构</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时，随机使一个武器的填充时间降低50%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮类武器攻击之后，35%概率发动，造成一次额外攻击，伤害值为当前护盾的15%，每次战斗最多发动3次</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发次数上限</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tgMax#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加本次挖矿数量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>船体加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>add#{}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{shdAdd:10}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{strcAdd:10}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{shdBtRecAdd:15}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>普晶体</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻型火炮激发</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发时机参数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发目标类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机一个武器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tgSrc#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tgSrcP#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tgProb#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tgEff#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tgNumSrc#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tgNumPer#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻型火炮激发</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>type#string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp#{}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂件加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>md#{}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>type#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复速度增加</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗受伤概率降低</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>btHrtProb#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpRecv#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>采矿量加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>minePer#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextLv#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{atkAdd_1:15}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认武器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bool-array#[] </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>num-array#[]</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>string-array#[]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>"hello","world"</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">bool-array#[] </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>object#{}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{mode:"percent",value:45}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{a:true,b:[1,2,3,4.4]}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>date#date</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>"描述"</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>人类</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>智械</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>炮类伤害加成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹伤害加成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾战斗回冲加成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾一般回冲加成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光伤害加成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shdBtRecPerAdd#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shdRecPerAdd#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构加成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>strcPerAdd#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>strc#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shd#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般护盾回冲</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shdRec#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗护盾回冲</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大武器位</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始开启武器位</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxWpNum#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>wpOpen#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大模块位</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxMdNum#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始开启模块位</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>mdOpen#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>电量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大等级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxLv#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>电量升级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>costLv#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾升级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构升级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shdLv#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>strcLv#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>货柜仓容量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>store#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民用侦查舰</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>海盗船突击舰</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>name#string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc#string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>堆叠数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>type#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>stack#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>子id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>subId#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器速度</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>装填速度</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础命中率</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>耗电量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>spd#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>start#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>aim#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>这篇宇宙中最常见的合成晶体，可以用来制造和修补</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民用弹射炮</t>
-  </si>
-  <si>
-    <t>民用弹射炮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是一种常见的民用炮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般无人海盗船上的常见炮类</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民用护盾扩充系统</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>wp_paoPer#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>wp_msPer#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>wp_lsPer#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一种常见的护盾扩充系统</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民用结构强化系统</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一种常见的结构扩充系统</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民用护盾扩充</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民用结构强化</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民用炮弹增幅</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民用护盾战斗回冲</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shdBtRec#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻型快速炮</t>
-  </si>
-  <si>
-    <t>轻型快速炮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加炮类伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗时护盾回冲增加</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发时机</t>
-  </si>
-  <si>
-    <t>触发时机</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发概率</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发数值来源</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发数值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发数值加成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发数值上限</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻型充能器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>tgTgt#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>tgNum#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>tgNumMax#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发效果类型</t>
-  </si>
-  <si>
-    <t>触发效果类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始时</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意武器发动时</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>某类武器发动时</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>某位置武器发动时</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对当前目标造成伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复护盾</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发目标参数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低某武器装填时间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发数值来源</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前护盾</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前结构</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始时，随机使一个武器的填充时间降低50%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>炮类武器攻击之后，35%概率发动，造成一次额外攻击，伤害值为当前护盾的15%，每次战斗最多发动3次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发次数上限</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>tgMax#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加本次挖矿数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>船体加成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>add#{}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{shdAdd:10}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{strcAdd:10}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{shdBtRecAdd:15}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>普晶体</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻型火炮激发</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发时机参数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发目标类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机一个武器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>tgSrc#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>tgSrcP#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>tgProb#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>tgEff#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>tgNumSrc#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>tgNumPer#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻型火炮激发</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>type#string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器加成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>wp#{}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂件加成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>md#{}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>type#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复速度增加</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗受伤概率降低</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>btHrtProb#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>hpRecv#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>采矿量加成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>minePer#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>nextLv#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{atkAdd_1:15}</t>
+    <t>wp#[]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认模块</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>md#[]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,10000</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,10001</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1450,7 +1474,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1475,11 +1499,14 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1847,28 +1874,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -1879,22 +1906,22 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1902,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3">
         <v>10</v>
@@ -1919,7 +1946,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>15</v>
@@ -1937,10 +1964,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1951,70 +1978,78 @@
     <col min="4" max="4" width="11.375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.25" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="16" max="16" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -2022,54 +2057,60 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="N2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2">
         <v>50</v>
@@ -2083,43 +2124,46 @@
       <c r="F3" s="2">
         <v>20</v>
       </c>
-      <c r="G3" s="2">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>5</v>
+      <c r="G3" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="I3" s="2">
         <v>5</v>
       </c>
       <c r="J3" s="2">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>5</v>
+      </c>
+      <c r="L3" s="2">
         <v>10</v>
       </c>
-      <c r="K3" s="2">
+      <c r="M3" s="2">
         <v>10</v>
       </c>
-      <c r="L3" s="2">
+      <c r="N3" s="2">
         <v>3</v>
       </c>
-      <c r="M3" s="2">
+      <c r="O3" s="2">
         <v>5</v>
       </c>
-      <c r="N3" s="2">
+      <c r="P3" s="2">
         <v>2</v>
       </c>
-      <c r="O3" s="2">
+      <c r="Q3" s="2">
         <v>10</v>
       </c>
-      <c r="P3" s="2">
+      <c r="R3" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2">
         <v>20</v>
@@ -2133,34 +2177,37 @@
       <c r="F4" s="2">
         <v>20</v>
       </c>
-      <c r="G4" s="2">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>5</v>
+      <c r="G4" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="I4" s="2">
         <v>5</v>
       </c>
       <c r="J4" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L4" s="2">
         <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <v>2</v>
       </c>
       <c r="P4" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2">
         <v>2</v>
       </c>
     </row>
@@ -2192,22 +2239,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2215,19 +2262,19 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -2235,10 +2282,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -2252,10 +2299,10 @@
         <v>10000</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2">
         <v>100</v>
@@ -2272,10 +2319,10 @@
         <v>10001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2">
         <v>100</v>
@@ -2292,10 +2339,10 @@
         <v>20000</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2">
         <v>101</v>
@@ -2312,10 +2359,10 @@
         <v>20001</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D7" s="2">
         <v>101</v>
@@ -2332,10 +2379,10 @@
         <v>20002</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D8" s="2">
         <v>101</v>
@@ -2352,10 +2399,10 @@
         <v>20003</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D9" s="2">
         <v>101</v>
@@ -2372,10 +2419,10 @@
         <v>20004</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D10" s="2">
         <v>101</v>
@@ -2392,10 +2439,10 @@
         <v>20005</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D11" s="2">
         <v>101</v>
@@ -2417,10 +2464,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H1048576"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2433,33 +2480,33 @@
     <col min="6" max="6" width="11.375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -2467,25 +2514,25 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -2493,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -2519,7 +2566,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2551,7 +2598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2578,49 +2625,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
@@ -2628,46 +2675,46 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -2675,7 +2722,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -2684,7 +2731,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -2692,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2701,7 +2748,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -2709,7 +2756,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -2718,7 +2765,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -2726,7 +2773,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -2735,7 +2782,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -2743,7 +2790,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -2781,7 +2828,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -2829,48 +2876,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="9"/>
+    <col min="7" max="7" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2881,28 +2928,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2917,7 +2964,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2969,19 +3016,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -3004,7 +3051,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1">
         <v>43435</v>
@@ -3015,7 +3062,7 @@
         <v>456</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -3024,13 +3071,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3065,47 +3112,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="E2" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="H2" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="K2" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2" s="8"/>
+      <c r="B2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="H2" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="K2" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H3" s="4">
         <v>0</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K3" s="4">
         <v>1</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.15">
@@ -3113,19 +3160,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H4" s="4">
         <v>1</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
@@ -3133,19 +3180,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H5" s="4">
         <v>2</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.15">
@@ -3153,13 +3200,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E6" s="4">
         <v>4</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/excel/basic.xlsx
+++ b/excel/basic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="240" windowWidth="24615" windowHeight="11520" activeTab="1"/>
+    <workbookView xWindow="6735" yWindow="240" windowWidth="24615" windowHeight="11520" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="weapon" sheetId="5" r:id="rId4"/>
     <sheet name="module" sheetId="6" r:id="rId5"/>
     <sheet name="skill" sheetId="8" r:id="rId6"/>
-    <sheet name="!readme" sheetId="2" r:id="rId7"/>
-    <sheet name="!类型" sheetId="7" r:id="rId8"/>
+    <sheet name="task" sheetId="9" r:id="rId7"/>
+    <sheet name="!readme" sheetId="2" r:id="rId8"/>
+    <sheet name="!类型" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -139,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="189">
   <si>
     <t>1,2</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -846,6 +847,50 @@
   </si>
   <si>
     <t>10001,10001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标参数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>type#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tParam#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量参数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>nParam#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀“蛇眼”</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇眼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,10001,1001,1001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc#string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>时限</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tLimit#number</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1502,10 +1547,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1964,10 +2009,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1978,7 +2023,7 @@
     <col min="4" max="4" width="11.375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.75" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.75" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.375" style="2" bestFit="1" customWidth="1"/>
@@ -2012,7 +2057,7 @@
       <c r="F1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>170</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2068,7 +2113,7 @@
       <c r="F2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>173</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -2124,7 +2169,7 @@
       <c r="F3" s="2">
         <v>20</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>176</v>
       </c>
       <c r="I3" s="2">
@@ -2177,7 +2222,7 @@
       <c r="F4" s="2">
         <v>20</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>177</v>
       </c>
       <c r="I4" s="2">
@@ -2208,6 +2253,59 @@
         <v>2</v>
       </c>
       <c r="R4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="2">
+        <v>200</v>
+      </c>
+      <c r="D5" s="2">
+        <v>200</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>50</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5</v>
+      </c>
+      <c r="O5" s="2">
+        <v>5</v>
+      </c>
+      <c r="P5" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2">
         <v>2</v>
       </c>
     </row>
@@ -2871,7 +2969,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2960,6 +3058,103 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -3086,7 +3281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L6"/>
   <sheetViews>
@@ -3112,22 +3307,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="10"/>
+      <c r="E2" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="H2" s="9" t="s">
+      <c r="F2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="K2" s="9" t="s">
+      <c r="I2" s="10"/>
+      <c r="K2" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="L2" s="9"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B3" s="4">
